--- a/data/trans_camb/P16-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,44</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,72; 15,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,93; 11,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,61; 14,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,61; 11,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,09; 11,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,49; 10,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,42; 12,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,13; 10,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,3; 11,11</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,14%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,67; 25,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,61; 19,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,42; 24,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,27; 15,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,45; 15,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,55; 13,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,54; 18,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,21; 15,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,62; 16,4</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,12</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,73</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,52; 15,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,68; 17,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,18; 20,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,49; 19,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,86; 14,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,33; 21,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,8; 15,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,15; 14,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,81; 19,58</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,23%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,23; 54,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,41; 61,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,39; 72,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,05; 44,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,43; 33,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,63; 47,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,19; 42,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,95; 40,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,54; 52,47</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,71</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,48</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,22; 14,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,22; 17,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,81; 24,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 14,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 10,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 12,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,21; 12,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,63; 12,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,11; 17,4</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,06%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,42; 45,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,11; 57,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,74; 81,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 31,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 23,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,46; 26,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,54; 32,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,01; 32,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,63; 44,26</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,82</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,43; 12,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,87; 11,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,5; 14,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,37; 13,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,7; 8,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,62; 9,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,13; 12,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,13; 9,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,96; 11,69</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,38%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,74; 31,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,38; 29,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,53; 36,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,71; 24,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,17; 15,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,15; 17,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,07; 25,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,02; 19,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,88; 23,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,55</t>
+          <t>9,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>8,43</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 14,39</t>
+          <t>4,52; 14,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 10,32</t>
+          <t>3,87; 10,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,3; 11,11</t>
+          <t>5,29; 11,18</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>12,12%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 24,71</t>
+          <t>7,11; 24,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 13,89</t>
+          <t>5,01; 14,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,62; 16,4</t>
+          <t>7,42; 16,33</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,25</t>
+          <t>13,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,12</t>
+          <t>16,86</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,07</t>
+          <t>15,18</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,18; 20,71</t>
+          <t>1,17; 19,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,33; 21,51</t>
+          <t>11,25; 29,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,81; 19,58</t>
+          <t>6,38; 21,07</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>56,79%</t>
+          <t>43,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>39,91%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41,39; 72,14</t>
+          <t>3,84; 65,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,63; 47,99</t>
+          <t>23,83; 64,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,54; 52,47</t>
+          <t>16,7; 56,15</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,71</t>
+          <t>19,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,31</t>
+          <t>13,73</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,81; 24,53</t>
+          <t>13,41; 25,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 12,52</t>
+          <t>1,27; 12,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,11; 17,4</t>
+          <t>9,42; 17,89</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>55,83%</t>
+          <t>57,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>33,07%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,74; 81,74</t>
+          <t>36,95; 84,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 26,14</t>
+          <t>2,31; 27,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,63; 44,26</t>
+          <t>21,28; 45,34</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,68</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>8,33</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,5; 14,25</t>
+          <t>-0,84; 13,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,9</t>
+          <t>4,37; 13,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,69</t>
+          <t>1,67; 12,22</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>16,75%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,53; 36,74</t>
+          <t>-2,02; 33,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,15; 17,11</t>
+          <t>7,35; 23,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,88; 23,86</t>
+          <t>3,78; 24,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,72; 15,03</t>
+          <t>6,53; 14,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 11,79</t>
+          <t>2,99; 11,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 14,57</t>
+          <t>4,21; 14,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,61; 11,92</t>
+          <t>5,63; 12,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 11,73</t>
+          <t>5,17; 11,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 10,53</t>
+          <t>3,53; 10,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,42; 12,41</t>
+          <t>7,11; 12,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 10,66</t>
+          <t>5,32; 10,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,29; 11,18</t>
+          <t>5,28; 11,13</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,67; 25,62</t>
+          <t>10,34; 25,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 19,88</t>
+          <t>4,82; 20,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,11; 24,6</t>
+          <t>6,57; 23,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,27; 15,95</t>
+          <t>7,15; 16,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 15,73</t>
+          <t>6,72; 15,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 14,12</t>
+          <t>4,51; 13,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,54; 18,4</t>
+          <t>9,96; 18,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 15,61</t>
+          <t>7,4; 15,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 16,33</t>
+          <t>7,45; 16,27</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 15,49</t>
+          <t>8,55; 15,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,68; 17,49</t>
+          <t>10,84; 17,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 19,44</t>
+          <t>-0,38; 19,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,49; 19,53</t>
+          <t>12,17; 19,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,86; 14,78</t>
+          <t>8,11; 14,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,25; 29,55</t>
+          <t>11,3; 26,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,8; 15,66</t>
+          <t>11,14; 16,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,15; 14,86</t>
+          <t>10,41; 15,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 21,07</t>
+          <t>6,82; 21,21</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,23; 54,82</t>
+          <t>26,55; 52,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,41; 61,87</t>
+          <t>33,6; 60,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 65,76</t>
+          <t>-0,66; 65,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,05; 44,05</t>
+          <t>25,62; 43,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,43; 33,37</t>
+          <t>17,02; 34,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,83; 64,68</t>
+          <t>23,16; 59,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,19; 42,45</t>
+          <t>28,24; 43,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,95; 40,57</t>
+          <t>26,69; 41,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,7; 56,15</t>
+          <t>18,18; 56,02</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 14,08</t>
+          <t>1,05; 14,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 17,6</t>
+          <t>5,25; 17,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,41; 25,2</t>
+          <t>13,32; 25,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 14,88</t>
+          <t>-0,03; 14,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 10,93</t>
+          <t>-2,39; 10,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 12,9</t>
+          <t>1,06; 12,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,21; 12,58</t>
+          <t>3,15; 12,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 12,85</t>
+          <t>3,93; 13,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,42; 17,89</t>
+          <t>9,37; 17,83</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,42; 45,9</t>
+          <t>2,81; 45,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,11; 57,52</t>
+          <t>13,98; 57,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>36,95; 84,4</t>
+          <t>35,41; 81,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 31,27</t>
+          <t>-0,04; 29,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 23,12</t>
+          <t>-4,21; 22,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 27,2</t>
+          <t>1,98; 25,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,54; 32,3</t>
+          <t>6,79; 31,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,01; 32,28</t>
+          <t>9,01; 33,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,28; 45,34</t>
+          <t>21,1; 45,75</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,43; 12,38</t>
+          <t>7,25; 12,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,87; 11,46</t>
+          <t>6,68; 11,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 13,41</t>
+          <t>-1,75; 13,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,37; 13,98</t>
+          <t>9,42; 13,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,71</t>
+          <t>3,85; 8,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,37; 13,8</t>
+          <t>4,39; 14,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,13; 12,53</t>
+          <t>8,91; 12,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,36</t>
+          <t>5,91; 9,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 12,22</t>
+          <t>1,51; 12,35</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,74; 31,88</t>
+          <t>17,55; 31,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,38; 29,33</t>
+          <t>16,04; 29,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 33,19</t>
+          <t>-3,83; 34,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,71; 24,61</t>
+          <t>15,73; 24,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,17; 15,14</t>
+          <t>6,49; 15,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,35; 23,85</t>
+          <t>7,34; 24,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,07; 25,83</t>
+          <t>17,59; 25,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12,02; 19,13</t>
+          <t>11,65; 19,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,78; 24,8</t>
+          <t>3,42; 25,09</t>
         </is>
       </c>
     </row>
